--- a/data/trans_camb/MCS12_SP_R3-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.435470742880224</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.447881168820448</v>
+        <v>2.447881168820443</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>9.227854746083896</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.539453134222151</v>
+        <v>-2.561888081446225</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.40731524814933</v>
+        <v>-3.463374273493865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.23304214445643</v>
+        <v>-3.364832745215252</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.923243446018499</v>
+        <v>4.585577709566202</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.026790884608116</v>
+        <v>-0.8120328303639941</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.07117892722097151</v>
+        <v>0.2821222761379022</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.882381700702492</v>
+        <v>2.489141092640153</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.9553758182670713</v>
+        <v>-1.203519232874576</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.4261323719946103</v>
+        <v>-0.07004962428363259</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.633992534341611</v>
+        <v>6.740116571220247</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.92517510112784</v>
+        <v>5.822997927731173</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.549543051324445</v>
+        <v>8.467016712104689</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.57737685178999</v>
+        <v>13.76077810115363</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.640025476175423</v>
+        <v>7.888659645428516</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.155775389125544</v>
+        <v>9.448477633819936</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.486144612659025</v>
+        <v>8.824951230546665</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.421792898683113</v>
+        <v>4.981368066901946</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.336265790516455</v>
+        <v>7.180329075217824</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.04999614715751118</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.08525748626188435</v>
+        <v>0.08525748626188416</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2684984619976243</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.07883236016376824</v>
+        <v>-0.0821000520610837</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1098636866050902</v>
+        <v>-0.1063566609918046</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1045203713593799</v>
+        <v>-0.1097642184359103</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1361337543295853</v>
+        <v>0.1271365013409802</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02655473817729363</v>
+        <v>-0.02220851198489225</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0006185612298864878</v>
+        <v>0.006810830864020362</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05666745246009408</v>
+        <v>0.07310692175608161</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02767533631279221</v>
+        <v>-0.03614675994654813</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.01152150034250189</v>
+        <v>-0.00242021313529827</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2595765496961777</v>
+        <v>0.2643457292886084</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.228342710663835</v>
+        <v>0.2281899290661095</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3211233539601769</v>
+        <v>0.3223392607046934</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4242931156921425</v>
+        <v>0.4351349320255147</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2415520742837348</v>
+        <v>0.2493039520123231</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2868999948229793</v>
+        <v>0.2975103971289683</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2817761176716123</v>
+        <v>0.2972722272520347</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1803353682049099</v>
+        <v>0.1626263760098224</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2406964970971247</v>
+        <v>0.2337291524541243</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6949328128772939</v>
+        <v>-0.5738836461058102</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.014958967132487</v>
+        <v>-5.298894512127365</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.065440101651692</v>
+        <v>-4.113166516334966</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.406302981294689</v>
+        <v>1.182387587970283</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.620558598426751</v>
+        <v>-6.298258359881273</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.31884615718206</v>
+        <v>-4.396997092518292</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.731993040471171</v>
+        <v>1.797283497788412</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.640793460180532</v>
+        <v>-4.456842045456002</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.93893562786048</v>
+        <v>-2.805625998695891</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.293292424084444</v>
+        <v>6.757498577649536</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.744321524648094</v>
+        <v>2.036077045895024</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.298850447879361</v>
+        <v>3.133318792929941</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.16790183711894</v>
+        <v>9.465203592165311</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.296731471566623</v>
+        <v>1.308359785224442</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.519324201295087</v>
+        <v>2.679078070172198</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.997966367474816</v>
+        <v>7.095260024010794</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.711494865516515</v>
+        <v>0.603699433463414</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.016235099982933</v>
+        <v>1.968527566388593</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0363052249608473</v>
+        <v>-0.0345556537453518</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2504198265340243</v>
+        <v>-0.268300233563727</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2066312382396571</v>
+        <v>-0.2047216708053629</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.0508332930517192</v>
+        <v>0.04158371859081799</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2450046518514722</v>
+        <v>-0.2320480296663014</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1600142677385955</v>
+        <v>-0.160795499672833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07559906564656441</v>
+        <v>0.07494057006580562</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2003843735847048</v>
+        <v>-0.19651108549194</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1292927546130499</v>
+        <v>-0.123596180452418</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3710258074233677</v>
+        <v>0.411148044037036</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1014994134914634</v>
+        <v>0.1192103289373141</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1929550166521902</v>
+        <v>0.1857804188946169</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3990621564900424</v>
+        <v>0.405956579423632</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05288622894926862</v>
+        <v>0.05868595924890445</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1001963745296122</v>
+        <v>0.1176267958849113</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3395349194623131</v>
+        <v>0.3434859894082925</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03427463259080795</v>
+        <v>0.02842194543257674</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.09676744673035198</v>
+        <v>0.09585272996032233</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.835590080790443</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7079969799098834</v>
+        <v>0.7079969799098806</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.757166697572746</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.419499173484423</v>
+        <v>-0.176948168870598</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.851361040335519</v>
+        <v>-4.855627422063225</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.34301318115212</v>
+        <v>-2.08779288123161</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8271014535635914</v>
+        <v>0.6894339368431773</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.92002759439742</v>
+        <v>-6.315488559681969</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.697236031778941</v>
+        <v>-1.842788810762248</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.642944764867786</v>
+        <v>1.482739523208042</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.435063524062388</v>
+        <v>-4.335095596244367</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.8297650571617226</v>
+        <v>-0.7545289582644538</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.243158451885516</v>
+        <v>5.962335969717467</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.22050359598857</v>
+        <v>1.251748094583392</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.806051168446443</v>
+        <v>3.759541162358498</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.799777938640931</v>
+        <v>8.610950480863306</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.388686917870744</v>
+        <v>1.662645491922185</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.509815344978268</v>
+        <v>5.040888120190131</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.756067838529428</v>
+        <v>6.782826586399715</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3642927516408999</v>
+        <v>0.5642524172399493</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.628547135781055</v>
+        <v>3.742041804060066</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1428440204157831</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.05509570797474026</v>
+        <v>0.05509570797474005</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2305900788698793</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02988623854938014</v>
+        <v>-0.01363300546641435</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3437316353777687</v>
+        <v>-0.3528890649480053</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1628488820171844</v>
+        <v>-0.1455395075930744</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03469763835219967</v>
+        <v>0.02880625200553317</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2676992532859417</v>
+        <v>-0.2808292422114602</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.07495651345508347</v>
+        <v>-0.07914950384025199</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09140388639312615</v>
+        <v>0.07676811380192085</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2576795923380357</v>
+        <v>-0.2436012342100325</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.04854074234848988</v>
+        <v>-0.04086999962142581</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5831407247706852</v>
+        <v>0.5093570455803819</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1058043726018782</v>
+        <v>0.1102880912726205</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3263746590721782</v>
+        <v>0.3292505643781381</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4711554289893768</v>
+        <v>0.4523059734578654</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07207823260324203</v>
+        <v>0.09256905922077972</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3026428249972692</v>
+        <v>0.2719808774558976</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4421680509717638</v>
+        <v>0.4374264948289088</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.02437167049552636</v>
+        <v>0.03735906735847502</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2384700580454127</v>
+        <v>0.2462073393622428</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-8.592057316992062</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.051879572244806</v>
+        <v>3.051879572244803</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.6357423756114089</v>
@@ -1297,7 +1297,7 @@
         <v>-3.492915199529714</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.270105170785012</v>
+        <v>6.270105170785017</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.09339398286032363</v>
@@ -1306,7 +1306,7 @@
         <v>-5.784973898617451</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.857473804084636</v>
+        <v>4.857473804084641</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.793562305798366</v>
+        <v>-6.141090307734604</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.33789376555782</v>
+        <v>-13.41006211029345</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.607215991381559</v>
+        <v>-1.666089912817206</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.04135693416794</v>
+        <v>-5.946699859952796</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.546841630295731</v>
+        <v>-9.654879759887523</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9328767617262467</v>
+        <v>0.8894072835617179</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.330082124124414</v>
+        <v>-3.87275920931514</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-9.481934926690752</v>
+        <v>-9.491379842909916</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.148104251430135</v>
+        <v>1.520573598414406</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.70508193560262</v>
+        <v>4.409161026849121</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.097499410342595</v>
+        <v>-4.059463021221106</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.367969218905237</v>
+        <v>7.73846505785263</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.332901642445983</v>
+        <v>6.790227078132238</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.496929161213894</v>
+        <v>2.563728589373584</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.37910813809453</v>
+        <v>11.76374066807969</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.945299319755945</v>
+        <v>3.797230317907371</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.34448224420111</v>
+        <v>-2.174576915589785</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.442767208731988</v>
+        <v>8.337035857948925</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.4527399971401843</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1608122359795912</v>
+        <v>0.160812235979591</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.02637489148862246</v>
@@ -1402,7 +1402,7 @@
         <v>-0.1449097352964039</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2601263496753095</v>
+        <v>0.2601263496753097</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.004406159656151443</v>
@@ -1411,7 +1411,7 @@
         <v>-0.27292463415013</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2291668526266772</v>
+        <v>0.2291668526266774</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2706819691982267</v>
+        <v>-0.2803044071388704</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6249732981449904</v>
+        <v>-0.6134487356176918</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.07150206542220297</v>
+        <v>-0.07141403162593125</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2129381807822542</v>
+        <v>-0.2136408237870129</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3648429076615244</v>
+        <v>-0.3458941838525885</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0353321600490405</v>
+        <v>0.02826364802358242</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1794260003742326</v>
+        <v>-0.1682547825881077</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4058587505276576</v>
+        <v>-0.4140072318650436</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.0479938502333083</v>
+        <v>0.06520679038699792</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2933282163860297</v>
+        <v>0.2768333373324968</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2422276281638835</v>
+        <v>-0.2249748220338459</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4735693419476691</v>
+        <v>0.4896095426621416</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3016454970968327</v>
+        <v>0.3277319043818625</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1163854630907262</v>
+        <v>0.1222431522666482</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5659808681866804</v>
+        <v>0.5766390215267418</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2024888069762406</v>
+        <v>0.1944322467084738</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1177747655979967</v>
+        <v>-0.1061760991178897</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4474395572905701</v>
+        <v>0.443556724273713</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.4671909606890373</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.215568023634447</v>
+        <v>1.215568023634453</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>6.353397170524705</v>
@@ -1511,7 +1511,7 @@
         <v>0.4827495239436763</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.501547078234156</v>
+        <v>1.50154707823415</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>5.188204352049833</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.787684066999521</v>
+        <v>1.968956765898838</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.394704534986858</v>
+        <v>-1.746084936166683</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.8290846670862384</v>
+        <v>-0.8041476671008612</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.969661867996942</v>
+        <v>4.106481538296545</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.92846136170497</v>
+        <v>-1.447226727273179</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.4756918765292009</v>
+        <v>-0.3942180200817345</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.653560158716816</v>
+        <v>3.677155309277019</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.9211771490439783</v>
+        <v>-0.963668576149139</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.1206893677806923</v>
+        <v>-0.0390283157289515</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.880828279977769</v>
+        <v>6.002921991229242</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.570560213070647</v>
+        <v>2.289812394161652</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.201192298986813</v>
+        <v>3.13047510044108</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.418530927822079</v>
+        <v>8.37255061406775</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.632552650979753</v>
+        <v>2.512286895938806</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.480601777347424</v>
+        <v>3.58172172584616</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.690155596341104</v>
+        <v>6.707757624790604</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.886522200018927</v>
+        <v>1.954608895772538</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.879370969707366</v>
+        <v>2.911095690143933</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.0254161544722201</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.06612941443605581</v>
+        <v>0.06612941443605612</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2416689377621824</v>
@@ -1616,7 +1616,7 @@
         <v>0.01836270604927922</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05711547344785123</v>
+        <v>0.05711547344785102</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2317560650210108</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.09142199786981832</v>
+        <v>0.1015988496573277</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.07173607799389663</v>
+        <v>-0.08930288569208107</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.04330193450337445</v>
+        <v>-0.04068532027209618</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1415624299399636</v>
+        <v>0.151004638717156</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.07013926893894877</v>
+        <v>-0.05350005369376751</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.01777033944792991</v>
+        <v>-0.01572810842444988</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1574528639699641</v>
+        <v>0.1573210866923009</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.04054956434751046</v>
+        <v>-0.04202714230404116</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.005201206436311257</v>
+        <v>-0.001715109338228879</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3406859097600075</v>
+        <v>0.3410581388636185</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1471046467299595</v>
+        <v>0.1308426169237063</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1838176227288386</v>
+        <v>0.1805998143303431</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3343254429278182</v>
+        <v>0.3365836825144073</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1061184995471924</v>
+        <v>0.09943560787978874</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1373503275561549</v>
+        <v>0.1433619958141412</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.303664488201866</v>
+        <v>0.3081894969669402</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.08858823200629634</v>
+        <v>0.09266123529620589</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1333755447574046</v>
+        <v>0.1335456185862286</v>
       </c>
     </row>
     <row r="34">
